--- a/output/baselines_results.xlsx
+++ b/output/baselines_results.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
-    <t>BiVAECF</t>
+    <t>BiVAE</t>
   </si>
   <si>
     <t>EASEᴿ</t>
@@ -25,7 +25,7 @@
     <t>MostPop</t>
   </si>
   <si>
-    <t>TeRCEx</t>
+    <t>ETeR-X</t>
   </si>
   <si>
     <t>USEM</t>

--- a/output/baselines_results.xlsx
+++ b/output/baselines_results.xlsx
@@ -25,13 +25,13 @@
     <t>MostPop</t>
   </si>
   <si>
-    <t>ETeR-X</t>
-  </si>
-  <si>
-    <t>USEM</t>
+    <t>TRecX</t>
   </si>
   <si>
     <t>BERT</t>
+  </si>
+  <si>
+    <t>AITRecX</t>
   </si>
   <si>
     <t>Set</t>
@@ -495,10 +495,10 @@
         <v>0.4489425420761108</v>
       </c>
       <c r="H2">
-        <v>0.0204380638897418</v>
+        <v>0.020696472376585</v>
       </c>
       <c r="I2">
-        <v>0.020696472376585</v>
+        <v>0.5097736716270447</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -520,10 +520,10 @@
         <v>0.5653563737869263</v>
       </c>
       <c r="H3">
-        <v>0.0493724830448627</v>
+        <v>0.0497276820242404</v>
       </c>
       <c r="I3">
-        <v>0.0497276820242404</v>
+        <v>0.6230168342590332</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -547,10 +547,10 @@
         <v>0.4836084246635437</v>
       </c>
       <c r="H4">
-        <v>0.1903207749128341</v>
+        <v>0.1793625354766845</v>
       </c>
       <c r="I4">
-        <v>0.1793625354766845</v>
+        <v>0.5582916140556335</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -572,10 +572,10 @@
         <v>0.7135802507400513</v>
       </c>
       <c r="H5">
-        <v>0.3326599299907684</v>
+        <v>0.3012345731258392</v>
       </c>
       <c r="I5">
-        <v>0.3012345731258392</v>
+        <v>0.7905724048614502</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -601,10 +601,10 @@
         <v>0.830578088760376</v>
       </c>
       <c r="H6">
-        <v>0.8439829349517822</v>
+        <v>0.849577784538269</v>
       </c>
       <c r="I6">
-        <v>0.849577784538269</v>
+        <v>0.8464432954788208</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -626,10 +626,10 @@
         <v>0.9489380717277528</v>
       </c>
       <c r="H7">
-        <v>0.9497288465499878</v>
+        <v>0.9596701264381408</v>
       </c>
       <c r="I7">
-        <v>0.9596701264381408</v>
+        <v>0.96384996175766</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -653,10 +653,10 @@
         <v>0.8322452306747437</v>
       </c>
       <c r="H8">
-        <v>0.8516348004341125</v>
+        <v>0.858952522277832</v>
       </c>
       <c r="I8">
-        <v>0.858952522277832</v>
+        <v>0.8555105924606323</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -678,10 +678,10 @@
         <v>0.9495667815208436</v>
       </c>
       <c r="H9">
-        <v>0.947196364402771</v>
+        <v>0.9588033556938172</v>
       </c>
       <c r="I9">
-        <v>0.9588033556938172</v>
+        <v>0.9646885991096495</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -705,10 +705,10 @@
         <v>0.847109854221344</v>
       </c>
       <c r="H10">
-        <v>0.8795891404151917</v>
+        <v>0.8786603808403015</v>
       </c>
       <c r="I10">
-        <v>0.8786603808403015</v>
+        <v>0.8767202496528625</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -730,10 +730,10 @@
         <v>0.9632399678230286</v>
       </c>
       <c r="H11">
-        <v>0.971540629863739</v>
+        <v>0.9741858839988708</v>
       </c>
       <c r="I11">
-        <v>0.9741858839988708</v>
+        <v>0.9744595289230348</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -757,10 +757,10 @@
         <v>0.8666979074478149</v>
       </c>
       <c r="H12">
-        <v>0.8933619260787964</v>
+        <v>0.8914504051208496</v>
       </c>
       <c r="I12">
-        <v>0.8914504051208496</v>
+        <v>0.8845361471176147</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -782,10 +782,10 @@
         <v>0.9713470935821532</v>
       </c>
       <c r="H13">
-        <v>0.9755567908287048</v>
+        <v>0.9762357473373412</v>
       </c>
       <c r="I13">
-        <v>0.9762357473373412</v>
+        <v>0.9767789244651794</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -809,10 +809,10 @@
         <v>0.8497676253318787</v>
       </c>
       <c r="H14">
-        <v>0.8726711869239807</v>
+        <v>0.8792068362236023</v>
       </c>
       <c r="I14">
-        <v>0.8792068362236023</v>
+        <v>0.8750119209289551</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -834,10 +834,10 @@
         <v>0.964950144290924</v>
       </c>
       <c r="H15">
-        <v>0.9705979824066162</v>
+        <v>0.974916934967041</v>
       </c>
       <c r="I15">
-        <v>0.974916934967041</v>
+        <v>0.9779070019721984</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -863,10 +863,10 @@
         <v>0.537446916103363</v>
       </c>
       <c r="H16">
-        <v>0.5610104203224182</v>
+        <v>0.5769718885421753</v>
       </c>
       <c r="I16">
-        <v>0.5769718885421753</v>
+        <v>0.5920780301094055</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -888,10 +888,10 @@
         <v>0.7187371850013733</v>
       </c>
       <c r="H17">
-        <v>0.7105370759963989</v>
+        <v>0.7515375018119812</v>
       </c>
       <c r="I17">
-        <v>0.7515375018119812</v>
+        <v>0.7716277241706848</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -915,10 +915,10 @@
         <v>0.4120133221149444</v>
       </c>
       <c r="H18">
-        <v>0.4132740497589111</v>
+        <v>0.447766900062561</v>
       </c>
       <c r="I18">
-        <v>0.447766900062561</v>
+        <v>0.4590192437171936</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -940,10 +940,10 @@
         <v>0.5586349964141846</v>
       </c>
       <c r="H19">
-        <v>0.5575743317604065</v>
+        <v>0.6089001893997192</v>
       </c>
       <c r="I19">
-        <v>0.6089001893997192</v>
+        <v>0.6105141639709473</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -967,10 +967,10 @@
         <v>0.4802264273166656</v>
       </c>
       <c r="H20">
-        <v>0.4576557278633117</v>
+        <v>0.4624153077602386</v>
       </c>
       <c r="I20">
-        <v>0.4624153077602386</v>
+        <v>0.512576699256897</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -992,10 +992,10 @@
         <v>0.620580792427063</v>
       </c>
       <c r="H21">
-        <v>0.5986351370811462</v>
+        <v>0.6482383608818054</v>
       </c>
       <c r="I21">
-        <v>0.6482383608818054</v>
+        <v>0.6590608358383179</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1019,10 +1019,10 @@
         <v>0.5134545564651489</v>
       </c>
       <c r="H22">
-        <v>0.5375981330871582</v>
+        <v>0.5196211338043213</v>
       </c>
       <c r="I22">
-        <v>0.5196211338043213</v>
+        <v>0.5622748732566833</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,10 +1044,10 @@
         <v>0.6518320441246033</v>
       </c>
       <c r="H23">
-        <v>0.6749303936958313</v>
+        <v>0.7011776566505432</v>
       </c>
       <c r="I23">
-        <v>0.7011776566505432</v>
+        <v>0.7023789882659912</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1071,10 +1071,10 @@
         <v>0.3372074663639068</v>
       </c>
       <c r="H24">
-        <v>0.3411926627159118</v>
+        <v>0.3319822251796722</v>
       </c>
       <c r="I24">
-        <v>0.3319822251796722</v>
+        <v>0.3960790038108825</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,10 +1096,10 @@
         <v>0.4543661773204803</v>
       </c>
       <c r="H25">
-        <v>0.4572497010231018</v>
+        <v>0.4997953772544861</v>
       </c>
       <c r="I25">
-        <v>0.4997953772544861</v>
+        <v>0.5226401686668396</v>
       </c>
     </row>
   </sheetData>
